--- a/examples/Utopia1_operation_multi_node/config.xlsx
+++ b/examples/Utopia1_operation_multi_node/config.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\negar\Documents\GitHub\hypatia\Examples\Utopia1_operation_multi_node\plots\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/negarnamazifard/Documents/GitHub/Hypatia_SESAM/examples/Utopia1_operation_multi_node/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341F67AC-96AA-6542-BAA5-402649CB63D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="18" windowWidth="16098" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Techs" sheetId="1" r:id="rId1"/>
     <sheet name="Fuels" sheetId="2" r:id="rId2"/>
     <sheet name="Regions" sheetId="3" r:id="rId3"/>
+    <sheet name="Emissions" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="79">
   <si>
     <t>tech_name</t>
   </si>
@@ -119,124 +121,133 @@
     <t>reg2</t>
   </si>
   <si>
+    <t>emission_unit</t>
+  </si>
+  <si>
+    <t>CO2-equivalent</t>
+  </si>
+  <si>
     <t>Natural Gas Extraction</t>
   </si>
   <si>
+    <t>Resource Extraction</t>
+  </si>
+  <si>
+    <t>rgb(217,95,2)</t>
+  </si>
+  <si>
+    <t>number of reservoir units</t>
+  </si>
+  <si>
+    <t>BOE</t>
+  </si>
+  <si>
+    <t>Combined Heat and Power Plant</t>
+  </si>
+  <si>
+    <t>Power Generation</t>
+  </si>
+  <si>
+    <t>#FFA15A</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>MWh</t>
+  </si>
+  <si>
+    <t>Geothermal Power Plant</t>
+  </si>
+  <si>
+    <t>rgb(156,156,94)</t>
+  </si>
+  <si>
+    <t>Solar Power Plant</t>
+  </si>
+  <si>
+    <t>#EECA3B</t>
+  </si>
+  <si>
+    <t>Wind Power Plant</t>
+  </si>
+  <si>
+    <t>#B6E880</t>
+  </si>
+  <si>
+    <t>Hydro Power Plant</t>
+  </si>
+  <si>
+    <t>rgb(136,204,238)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electricity Transmission </t>
+  </si>
+  <si>
+    <t>Electricity Transmission</t>
+  </si>
+  <si>
+    <t>#778AAE</t>
+  </si>
+  <si>
     <t>Natural Gas Pipeline</t>
   </si>
   <si>
-    <t>Combined Heat and Power Plant</t>
-  </si>
-  <si>
-    <t>Geothermal Power Plant</t>
-  </si>
-  <si>
-    <t>Solar Power Plant</t>
-  </si>
-  <si>
-    <t>Wind Power Plant</t>
-  </si>
-  <si>
-    <t>Hydro Power Plant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electricity Transmission </t>
+    <t>Gas Pipeline</t>
+  </si>
+  <si>
+    <t>rgb(220,176,242)</t>
   </si>
   <si>
     <t>Gas Boiler</t>
   </si>
   <si>
+    <t>Heating Device</t>
+  </si>
+  <si>
+    <t>#E377C2</t>
+  </si>
+  <si>
+    <t>number of boilers</t>
+  </si>
+  <si>
     <t>Final Electricity Demand</t>
   </si>
   <si>
+    <t>Final Demand</t>
+  </si>
+  <si>
+    <t>rgb(180,151,231)</t>
+  </si>
+  <si>
     <t>Final Heat Demand</t>
   </si>
   <si>
-    <t>Resource Extraction</t>
-  </si>
-  <si>
-    <t>Power Generation</t>
-  </si>
-  <si>
-    <t>Electricity Transmission</t>
-  </si>
-  <si>
-    <t>Gas Pipeline</t>
-  </si>
-  <si>
-    <t>Heating Device</t>
-  </si>
-  <si>
-    <t>Final Demand</t>
-  </si>
-  <si>
-    <t>rgb(217,95,2)</t>
-  </si>
-  <si>
-    <t>#FFA15A</t>
-  </si>
-  <si>
-    <t>rgb(156,156,94)</t>
-  </si>
-  <si>
-    <t>#EECA3B</t>
-  </si>
-  <si>
-    <t>#B6E880</t>
-  </si>
-  <si>
-    <t>rgb(136,204,238)</t>
-  </si>
-  <si>
-    <t>#778AAE</t>
-  </si>
-  <si>
-    <t>#E377C2</t>
-  </si>
-  <si>
-    <t>rgb(220,176,242)</t>
-  </si>
-  <si>
-    <t>rgb(180,151,231)</t>
-  </si>
-  <si>
     <t>rgb(204,102,119)</t>
   </si>
   <si>
-    <t>number of reservoir units</t>
-  </si>
-  <si>
-    <t>MW</t>
-  </si>
-  <si>
-    <t>number of boilers</t>
-  </si>
-  <si>
-    <t>BOE</t>
-  </si>
-  <si>
-    <t>MWh</t>
-  </si>
-  <si>
     <t>Fuel Natural Gas</t>
   </si>
   <si>
+    <t>Gas Resource</t>
+  </si>
+  <si>
     <t>Electricity</t>
   </si>
   <si>
     <t>Final Electricity</t>
   </si>
   <si>
+    <t>#0099C6</t>
+  </si>
+  <si>
     <t>Final Gas</t>
   </si>
   <si>
-    <t>Gas Resource</t>
-  </si>
-  <si>
     <t>Gas</t>
   </si>
   <si>
-    <t>#0099C6</t>
+    <t>ton</t>
   </si>
   <si>
     <t>Utopia_north</t>
@@ -245,16 +256,16 @@
     <t>#2CA02C</t>
   </si>
   <si>
+    <t>Utopia_south</t>
+  </si>
+  <si>
     <t>#8C564B</t>
-  </si>
-  <si>
-    <t>Utopia_south</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -405,6 +416,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -440,6 +468,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -615,24 +660,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="B2:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="21.47265625" customWidth="1"/>
-    <col min="2" max="2" width="26.3671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.3671875" customWidth="1"/>
-    <col min="4" max="4" width="17.26171875" customWidth="1"/>
-    <col min="5" max="5" width="20.734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -652,224 +689,224 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" t="s">
         <v>42</v>
       </c>
-      <c r="C12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" t="s">
-        <v>61</v>
-      </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -878,21 +915,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="2" max="2" width="13.62890625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.68359375" customWidth="1"/>
-    <col min="4" max="4" width="14.41796875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -909,75 +941,75 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
         <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
         <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -988,10 +1020,10 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1000,20 +1032,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="2" max="2" width="11.41796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.89453125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -1024,25 +1052,53 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
         <v>74</v>
       </c>
     </row>

--- a/examples/Utopia1_operation_multi_node/config.xlsx
+++ b/examples/Utopia1_operation_multi_node/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/negarnamazifard/Documents/GitHub/Hypatia_SESAM/examples/Utopia1_operation_multi_node/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammadamintahavori/Documents/GitHub/Hypatia_sesam/examples/Utopia1_operation_multi_node/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341F67AC-96AA-6542-BAA5-402649CB63D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB4D9DE-0F15-0140-B753-0BBBBD27E61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Techs" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="81">
   <si>
     <t>tech_name</t>
   </si>
@@ -124,9 +124,6 @@
     <t>emission_unit</t>
   </si>
   <si>
-    <t>CO2-equivalent</t>
-  </si>
-  <si>
     <t>Natural Gas Extraction</t>
   </si>
   <si>
@@ -260,6 +257,15 @@
   </si>
   <si>
     <t>#8C564B</t>
+  </si>
+  <si>
+    <t>emission_name</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>CO2 emissions</t>
   </si>
 </sst>
 </file>
@@ -664,7 +670,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F12"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -694,19 +700,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>37</v>
-      </c>
-      <c r="F2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -714,19 +720,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>40</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>41</v>
       </c>
-      <c r="E3" t="s">
-        <v>42</v>
-      </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -734,19 +740,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
         <v>44</v>
       </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>45</v>
-      </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -754,19 +760,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
         <v>46</v>
       </c>
-      <c r="C5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" t="s">
-        <v>47</v>
-      </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -774,19 +780,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
         <v>48</v>
       </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>49</v>
-      </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -794,19 +800,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
         <v>50</v>
       </c>
-      <c r="C7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" t="s">
-        <v>51</v>
-      </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -814,19 +820,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
         <v>52</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>53</v>
       </c>
-      <c r="D8" t="s">
-        <v>54</v>
-      </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -834,19 +840,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
         <v>55</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>56</v>
       </c>
-      <c r="D9" t="s">
-        <v>57</v>
-      </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -854,19 +860,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
         <v>58</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>59</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>60</v>
       </c>
-      <c r="E10" t="s">
-        <v>61</v>
-      </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -874,19 +880,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s">
         <v>62</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>63</v>
       </c>
-      <c r="D11" t="s">
-        <v>64</v>
-      </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -894,19 +900,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
         <v>65</v>
       </c>
-      <c r="C12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" t="s">
-        <v>66</v>
-      </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -919,7 +925,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -946,16 +952,16 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
         <v>67</v>
       </c>
-      <c r="C2" t="s">
-        <v>68</v>
-      </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -963,16 +969,16 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -980,16 +986,16 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
         <v>70</v>
       </c>
-      <c r="C4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" t="s">
-        <v>71</v>
-      </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -997,16 +1003,16 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
         <v>72</v>
       </c>
-      <c r="C5" t="s">
-        <v>73</v>
-      </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1020,10 +1026,10 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1035,7 +1041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -1057,10 +1063,10 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
         <v>75</v>
-      </c>
-      <c r="C2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1068,10 +1074,10 @@
         <v>31</v>
       </c>
       <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
         <v>77</v>
-      </c>
-      <c r="C3" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1081,25 +1087,36 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
